--- a/ExcelRead/enter tenant details.xlsx
+++ b/ExcelRead/enter tenant details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar.mehra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63371F-A828-403A-9690-E7211CD524BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC18BD9E-BCA1-4A66-8165-01CE062516F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{FA2CAAA4-F0A5-471C-90CA-520E3F07E7B1}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>shashank.mehra@orkut00234.com</t>
-  </si>
-  <si>
     <t>Sagar</t>
   </si>
   <si>
     <t>Mehra</t>
+  </si>
+  <si>
+    <t>sagar.mehra@orkut0000.com</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C734A52-C8E6-4F76-9B57-55B096698B84}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,16 +555,16 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelRead/enter tenant details.xlsx
+++ b/ExcelRead/enter tenant details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar.mehra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC18BD9E-BCA1-4A66-8165-01CE062516F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D8D4F-CEF6-4996-9BE8-604D9EAD6002}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{FA2CAAA4-F0A5-471C-90CA-520E3F07E7B1}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Mehra</t>
   </si>
   <si>
-    <t>sagar.mehra@orkut0000.com</t>
+    <t>sagar.mehra@orkut099.com</t>
   </si>
 </sst>
 </file>
